--- a/Cryptocurrencies.xlsx
+++ b/Cryptocurrencies.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,6 +453,166 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+1
+</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Bitcoin
+BTC
+</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>$28,838.86</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.60%</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>$28,840.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+2
+</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Ethereum
+ETH
+</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>$1,874.63</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-0.40%</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>$1,874.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+3
+</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Tether
+USDT
+</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>$1.00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.10%</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>$1.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+4
+</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+BNB
+BNB
+</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>$324.26</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.10%</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>$324.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+5
+</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+USD Coin
+USDC
+</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>$1.00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.40%</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>$1.40</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Cryptocurrencies.xlsx
+++ b/Cryptocurrencies.xlsx
@@ -425,6 +425,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="35" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -471,17 +478,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$28,838.86</t>
+          <t>$28,898.36</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.60%</t>
+          <t>1.90%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>$28,840.46</t>
+          <t>$28,900.26</t>
         </is>
       </c>
     </row>
@@ -503,17 +510,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$1,874.63</t>
+          <t>$1,878.43</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-0.40%</t>
+          <t>0.10%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>$1,874.23</t>
+          <t>$1,878.53</t>
         </is>
       </c>
     </row>
@@ -540,12 +547,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.10%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>$1.10</t>
+          <t>$1.00</t>
         </is>
       </c>
     </row>
@@ -567,17 +574,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$324.26</t>
+          <t>$324.77</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.10%</t>
+          <t>0.30%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>$324.36</t>
+          <t>$325.07</t>
         </is>
       </c>
     </row>
@@ -604,12 +611,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.40%</t>
+          <t>0.20%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>$1.40</t>
+          <t>$1.20</t>
         </is>
       </c>
     </row>

--- a/Cryptocurrencies.xlsx
+++ b/Cryptocurrencies.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -26,8 +26,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Times New Roman"/>
       <b val="1"/>
       <sz val="14"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="2">
@@ -50,9 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -426,17 +432,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="1" max="1"/>
     <col width="25" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="35" customWidth="1" min="4" max="4"/>
-    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="40" customWidth="1" min="4" max="4"/>
+    <col width="30" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Number</t>
+          <t>#</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -461,14 +467,14 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 1
 </t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Bitcoin
@@ -476,31 +482,31 @@
 </t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>$28,898.36</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.90%</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>$28,900.26</t>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>$28,862.19</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>1.50%</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>$28,863.69</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 2
 </t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ethereum
@@ -508,31 +514,31 @@
 </t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>$1,878.43</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.10%</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>$1,878.53</t>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>$1,877.18</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>-0.10%</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>$1,877.08</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 3
 </t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Tether
@@ -540,31 +546,31 @@
 </t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>$1.00</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>$1.00</t>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0.10%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>$1.10</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 4
 </t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 BNB
@@ -572,31 +578,31 @@
 </t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>$324.77</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.30%</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>$325.07</t>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>$324.25</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-0.10%</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>$324.15</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 5
 </t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 USD Coin
@@ -604,19 +610,19 @@
 </t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr">
         <is>
           <t>$1.00</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.20%</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>$1.20</t>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-0.30%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>$0.70</t>
         </is>
       </c>
     </row>

--- a/Cryptocurrencies.xlsx
+++ b/Cryptocurrencies.xlsx
@@ -484,7 +484,7 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>$28,862.19</t>
+          <t>$28,859.43</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -494,7 +494,7 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>$28,863.69</t>
+          <t>$28,860.93</t>
         </is>
       </c>
     </row>
@@ -516,17 +516,17 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>$1,877.18</t>
+          <t>$1,877.43</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>-0.10%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>$1,877.08</t>
+          <t>$1,877.43</t>
         </is>
       </c>
     </row>
@@ -580,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>$324.25</t>
+          <t>$324.20</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0.10%</t>
+          <t>-0.20%</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>$324.15</t>
+          <t>$324.00</t>
         </is>
       </c>
     </row>
@@ -617,12 +617,12 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0.30%</t>
+          <t>-0.20%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>$0.70</t>
+          <t>$0.80</t>
         </is>
       </c>
     </row>
